--- a/biology/Zoologie/Heterixalus_carbonei/Heterixalus_carbonei.xlsx
+++ b/biology/Zoologie/Heterixalus_carbonei/Heterixalus_carbonei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heterixalus carbonei est une espèce d'amphibiens de la famille des Hyperoliidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heterixalus carbonei est une espèce d'amphibiens de la famille des Hyperoliidae.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre, :
 dans l'ouest de l'île dans le parc national de Kirindy Mitea et dans le parc national du Tsingy de Bemaraha en dessous de 200 m d'altitude ;
 dans le nord de l'île dans le parc national de la Montagne d'Ambre à environ 900 m d'altitude.
-Elle vit dans la forêt tropicale sèche à l'ouest et dans la forêt tropicale humide au nord[2].
+Elle vit dans la forêt tropicale sèche à l'ouest et dans la forêt tropicale humide au nord.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Ermanno Carbone[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Ermanno Carbone.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vences, Glaw, Jesu &amp; Schimmenti, 2000 : A new species of Heterixalus (Amphibia: Hyperoliidae) from western Madagascar. African Zoology, vol. 35, p. 269-276 (texte intégral).</t>
         </is>
